--- a/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A56D73B-3136-4B80-835E-FD96D7B97607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2659E2E-2AC7-450E-BD61-7FC84AEBA387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67683E76-61E5-4DB3-B456-DC8DDB145B0B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{029F8A95-9ADB-447B-8DD4-E256C43D6F48}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>87,28%</t>
+    <t>86,36%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -128,19 +128,19 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -155,394 +155,394 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED643517-643C-44F6-8304-3A49E2F949EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210679B8-72E7-406D-9F6A-64A0A5D3391B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,10 +1524,10 @@
         <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>1896</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1572,13 +1572,13 @@
         <v>1896</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1593,13 @@
         <v>4527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1608,10 +1608,10 @@
         <v>5632</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -1871,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1880,13 +1880,13 @@
         <v>1256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,10 +1901,10 @@
         <v>4442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>87</v>
@@ -2026,7 +2026,7 @@
         <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M22" s="7">
         <v>637</v>
@@ -2035,13 +2035,13 @@
         <v>517044</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>1125</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2071,13 +2071,13 @@
         <v>2773</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2086,13 +2086,13 @@
         <v>3898</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2107,13 @@
         <v>6692</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2122,13 +2122,13 @@
         <v>8726</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2137,13 +2137,13 @@
         <v>15418</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
         <v>1371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2188,13 +2188,13 @@
         <v>1371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2209,13 @@
         <v>2327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2239,13 +2239,13 @@
         <v>2327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2370,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2619,39 +2619,39 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,39 +2664,39 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,39 +2709,39 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,39 +2754,39 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,39 +2799,39 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,39 +2844,39 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2893,13 @@
         <v>679309</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H40" s="7">
         <v>971</v>
@@ -2908,13 +2908,13 @@
         <v>723056</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M40" s="7">
         <v>1535</v>
@@ -2923,13 +2923,13 @@
         <v>1402365</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>1284</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -2959,13 +2959,13 @@
         <v>3549</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -2977,10 +2977,10 @@
         <v>68</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2995,13 @@
         <v>12571</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3010,13 +3010,13 @@
         <v>15670</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M42" s="7">
         <v>34</v>
@@ -3025,13 +3025,13 @@
         <v>28241</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>2628</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3061,13 +3061,13 @@
         <v>1896</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3076,13 +3076,13 @@
         <v>4524</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>11296</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
@@ -3112,13 +3112,13 @@
         <v>10942</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -3127,10 +3127,10 @@
         <v>22239</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>168</v>

--- a/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2659E2E-2AC7-450E-BD61-7FC84AEBA387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7A85DE-2773-41A2-993B-A44293AE75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{029F8A95-9ADB-447B-8DD4-E256C43D6F48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5A7CCC0-291F-44B5-BCB2-5EA50CF9377C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210679B8-72E7-406D-9F6A-64A0A5D3391B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FCD3C-1800-4CCA-AF7D-EC6E7ADA1ECE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7A85DE-2773-41A2-993B-A44293AE75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F52B55E-08FC-42ED-8837-7365A64940F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5A7CCC0-291F-44B5-BCB2-5EA50CF9377C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72902408-D16D-4BA9-B561-947C8AC75B52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>86,36%</t>
+    <t>87,28%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -128,19 +128,19 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -155,394 +155,394 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FCD3C-1800-4CCA-AF7D-EC6E7ADA1ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6E555-71BE-45F9-8515-D32CF3452163}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,10 +1524,10 @@
         <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>1896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1572,13 +1572,13 @@
         <v>1896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1593,13 @@
         <v>4527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1608,10 +1608,10 @@
         <v>5632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -1871,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1880,13 +1880,13 @@
         <v>1256</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,10 +1901,10 @@
         <v>4442</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>87</v>
@@ -2026,7 +2026,7 @@
         <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>637</v>
@@ -2035,13 +2035,13 @@
         <v>517044</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>1125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2071,13 +2071,13 @@
         <v>2773</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2086,13 +2086,13 @@
         <v>3898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2107,13 @@
         <v>6692</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2122,13 +2122,13 @@
         <v>8726</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2137,13 +2137,13 @@
         <v>15418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
         <v>1371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2188,13 +2188,13 @@
         <v>1371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2209,13 @@
         <v>2327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2239,13 +2239,13 @@
         <v>2327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2370,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2619,39 +2619,39 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,39 +2664,39 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,39 +2709,39 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,39 +2754,39 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,39 +2799,39 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,39 +2844,39 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2893,13 @@
         <v>679309</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H40" s="7">
         <v>971</v>
@@ -2908,13 +2908,13 @@
         <v>723056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M40" s="7">
         <v>1535</v>
@@ -2923,13 +2923,13 @@
         <v>1402365</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>1284</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -2959,13 +2959,13 @@
         <v>3549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -2977,10 +2977,10 @@
         <v>68</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2995,13 @@
         <v>12571</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3010,13 +3010,13 @@
         <v>15670</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M42" s="7">
         <v>34</v>
@@ -3025,13 +3025,13 @@
         <v>28241</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>2628</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3061,13 +3061,13 @@
         <v>1896</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3076,13 +3076,13 @@
         <v>4524</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>11296</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
@@ -3112,13 +3112,13 @@
         <v>10942</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -3127,10 +3127,10 @@
         <v>22239</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>168</v>

--- a/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F52B55E-08FC-42ED-8837-7365A64940F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A09AA1-ACF2-43DF-98D6-3AB056E8F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72902408-D16D-4BA9-B561-947C8AC75B52}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1DDE8205-DB37-4FEB-A896-4937398ACD68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="169">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -113,34 +113,34 @@
     <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -152,397 +152,394 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,8 +954,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6E555-71BE-45F9-8515-D32CF3452163}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED54E6A3-E89E-46F2-A690-D1E5AF5EEF5D}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1078,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>57683</v>
+        <v>60627</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1093,7 +1090,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>72360</v>
+        <v>64150</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1108,7 +1105,7 @@
         <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>130043</v>
+        <v>124776</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1333,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="7">
-        <v>57683</v>
+        <v>60627</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1348,7 +1345,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>72360</v>
+        <v>64150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1363,7 +1360,7 @@
         <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>130043</v>
+        <v>124776</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1386,7 +1383,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>129238</v>
+        <v>129812</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -1401,7 +1398,7 @@
         <v>149</v>
       </c>
       <c r="I10" s="7">
-        <v>152564</v>
+        <v>139660</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>29</v>
@@ -1416,7 +1413,7 @@
         <v>239</v>
       </c>
       <c r="N10" s="7">
-        <v>281801</v>
+        <v>269473</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
@@ -1488,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>38</v>
@@ -1503,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>40</v>
@@ -1518,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>42</v>
@@ -1554,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -1563,22 +1560,22 @@
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1896</v>
+        <v>1724</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,28 +1587,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>4527</v>
+        <v>4345</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>5632</v>
+        <v>4883</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -1620,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>10159</v>
+        <v>9228</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
@@ -1641,7 +1638,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="7">
-        <v>135027</v>
+        <v>135429</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1656,7 +1653,7 @@
         <v>157</v>
       </c>
       <c r="I15" s="7">
-        <v>160251</v>
+        <v>146428</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1671,7 +1668,7 @@
         <v>250</v>
       </c>
       <c r="N15" s="7">
-        <v>295278</v>
+        <v>281858</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1694,7 +1691,7 @@
         <v>187</v>
       </c>
       <c r="D16" s="7">
-        <v>195920</v>
+        <v>187760</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
@@ -1709,7 +1706,7 @@
         <v>328</v>
       </c>
       <c r="I16" s="7">
-        <v>220859</v>
+        <v>204878</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>60</v>
@@ -1724,7 +1721,7 @@
         <v>515</v>
       </c>
       <c r="N16" s="7">
-        <v>416778</v>
+        <v>392638</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
@@ -1745,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -1760,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>68</v>
@@ -1775,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>936</v>
+        <v>889</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1784,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,46 +1793,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4617</v>
+        <v>4245</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>6785</v>
+        <v>6243</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>13</v>
+      </c>
+      <c r="N18" s="7">
+        <v>10489</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M18" s="7">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7">
-        <v>11402</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,16 +1844,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1871,13 +1868,13 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>83</v>
@@ -1898,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4442</v>
+        <v>4127</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>85</v>
@@ -1913,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>5310</v>
+        <v>4938</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>88</v>
@@ -1928,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>9752</v>
+        <v>9065</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>91</v>
@@ -1949,7 +1946,7 @@
         <v>197</v>
       </c>
       <c r="D21" s="7">
-        <v>206395</v>
+        <v>197602</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1964,7 +1961,7 @@
         <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>233730</v>
+        <v>216785</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1979,7 +1976,7 @@
         <v>542</v>
       </c>
       <c r="N21" s="7">
-        <v>440124</v>
+        <v>414387</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2002,7 +1999,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="7">
-        <v>263298</v>
+        <v>443985</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>95</v>
@@ -2017,7 +2014,7 @@
         <v>412</v>
       </c>
       <c r="I22" s="7">
-        <v>253746</v>
+        <v>235407</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>98</v>
@@ -2032,7 +2029,7 @@
         <v>637</v>
       </c>
       <c r="N22" s="7">
-        <v>517044</v>
+        <v>679393</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>101</v>
@@ -2053,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1125</v>
+        <v>1045</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>104</v>
@@ -2068,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>2773</v>
+        <v>2499</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>106</v>
@@ -2077,22 +2074,22 @@
         <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>3898</v>
+        <v>3545</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,46 +2101,46 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>6692</v>
+        <v>6459</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8262</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8726</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>15418</v>
+        <v>14721</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2179,22 +2176,22 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,16 +2203,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2327</v>
+        <v>2076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2230,22 +2227,22 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>2327</v>
+        <v>2076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2254,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="7">
-        <v>274814</v>
+        <v>455018</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2272,7 +2269,7 @@
         <v>429</v>
       </c>
       <c r="I27" s="7">
-        <v>265245</v>
+        <v>246169</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2287,7 +2284,7 @@
         <v>664</v>
       </c>
       <c r="N27" s="7">
-        <v>540059</v>
+        <v>701187</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2310,13 +2307,13 @@
         <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>33171</v>
+        <v>30743</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2325,13 +2322,13 @@
         <v>37</v>
       </c>
       <c r="I28" s="7">
-        <v>23526</v>
+        <v>21746</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2340,7 +2337,7 @@
         <v>72</v>
       </c>
       <c r="N28" s="7">
-        <v>56697</v>
+        <v>52489</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
@@ -2370,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2385,7 +2382,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2421,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2436,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2472,7 +2469,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2487,7 +2484,7 @@
         <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2523,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2538,7 +2535,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2565,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="7">
-        <v>33171</v>
+        <v>30743</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -2580,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="I33" s="7">
-        <v>23526</v>
+        <v>21746</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -2595,7 +2592,7 @@
         <v>72</v>
       </c>
       <c r="N33" s="7">
-        <v>56697</v>
+        <v>52489</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -2609,7 +2606,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2619,39 +2616,39 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,39 +2661,39 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,39 +2706,39 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,39 +2751,39 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,39 +2796,39 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,92 +2841,86 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>564</v>
-      </c>
-      <c r="D40" s="7">
-        <v>679309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H40" s="7">
-        <v>971</v>
-      </c>
-      <c r="I40" s="7">
-        <v>723056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M40" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N40" s="7">
-        <v>1402365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2929,43 @@
         <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H41" s="7">
-        <v>5</v>
-      </c>
-      <c r="I41" s="7">
-        <v>3549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M41" s="7">
-        <v>7</v>
-      </c>
-      <c r="N41" s="7">
-        <v>4834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,49 +2974,43 @@
         <v>22</v>
       </c>
       <c r="C42" s="7">
-        <v>11</v>
-      </c>
-      <c r="D42" s="7">
-        <v>12571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H42" s="7">
-        <v>23</v>
-      </c>
-      <c r="I42" s="7">
-        <v>15670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="M42" s="7">
-        <v>34</v>
-      </c>
-      <c r="N42" s="7">
-        <v>28241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,49 +3019,43 @@
         <v>23</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="H43" s="7">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M43" s="7">
-        <v>4</v>
-      </c>
-      <c r="N43" s="7">
-        <v>4524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3064,43 @@
         <v>24</v>
       </c>
       <c r="C44" s="7">
-        <v>8</v>
-      </c>
-      <c r="D44" s="7">
-        <v>11296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H44" s="7">
-        <v>12</v>
-      </c>
-      <c r="I44" s="7">
-        <v>10942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="M44" s="7">
-        <v>20</v>
-      </c>
-      <c r="N44" s="7">
-        <v>22239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3109,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>564</v>
+      </c>
+      <c r="D46" s="7">
+        <v>852928</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="7">
+        <v>971</v>
+      </c>
+      <c r="I46" s="7">
+        <v>665842</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1535</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1518768</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1208</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="7">
+        <v>5</v>
+      </c>
+      <c r="I47" s="7">
+        <v>3225</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="7">
+        <v>7</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4433</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7">
+        <v>11</v>
+      </c>
+      <c r="D48" s="7">
+        <v>11975</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="7">
+        <v>23</v>
+      </c>
+      <c r="I48" s="7">
+        <v>14668</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="7">
+        <v>34</v>
+      </c>
+      <c r="N48" s="7">
+        <v>26643</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2761</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1724</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4</v>
+      </c>
+      <c r="N49" s="7">
+        <v>4484</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10548</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" s="7">
+        <v>12</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9821</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M50" s="7">
+        <v>20</v>
+      </c>
+      <c r="N50" s="7">
+        <v>20368</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>587</v>
       </c>
-      <c r="D45" s="7">
-        <v>707089</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>879419</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
-        <v>755113</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>695279</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="7">
         <v>1600</v>
       </c>
-      <c r="N45" s="7">
-        <v>1462202</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>169</v>
+      <c r="N51" s="7">
+        <v>1574697</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
